--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_COAD_G12A.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_COAD_G12A.xlsx
@@ -163,16 +163,16 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9929076041466353E-4</v>
+        <v>3.291166829116823E-4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.057196448239008435</v>
+        <v>0.09445648799565282</v>
       </c>
       <c r="G2" t="n">
-        <v>25.762129669386006</v>
+        <v>21.8978102189781</v>
       </c>
       <c r="H2" t="n">
-        <v>219.5125553973602</v>
+        <v>175.60069074678003</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -195,16 +195,16 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>2.9169286205301905E-4</v>
+        <v>4.0637445946356223E-4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.137679030889025</v>
+        <v>0.19180874486680138</v>
       </c>
       <c r="G3" t="n">
-        <v>78.43137254901961</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>638.416404043489</v>
+        <v>520.5490339655365</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
